--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">H26.8!$A$1:$AK$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">H28.6!$A$1:$AK$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">H28.7!$A$1:$AK$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">H28.6!$A$1:$AK$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">H28.7!$A$1:$AK$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">H28.8!$A$1:$AK$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>活動内容</t>
     <rPh sb="0" eb="2">
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>AWS上へのデプロイ</t>
-  </si>
-  <si>
-    <t>AWS上へのデプロイ</t>
     <rPh sb="3" eb="4">
       <t>ジョウ</t>
     </rPh>
@@ -511,6 +508,365 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">  gmaps.jsの使い方</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  APIの使い方</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  マップの生成、初期設定</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  地図上へのオブジェクト生成</t>
+    <rPh sb="2" eb="4">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  菊谷から情報収集</t>
+    <rPh sb="2" eb="4">
+      <t>キクヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  菊谷情報からやること決める</t>
+    <rPh sb="2" eb="4">
+      <t>キクヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  マップ表示・経路検索画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  講義（6/27）</t>
+    <rPh sb="2" eb="4">
+      <t>コウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  AWS上への環境構築</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期設定</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gitリポジトリ作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Djangoでプロジェクト作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    概要データの取得方法</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    概要データの使用方法</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発マージン</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  GoogleMapの動作テスト</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  関連ニュース取得・使用の動作テスト</t>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  会社概要の取得・使用の動作テスト</t>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  経路検索の取得・使用の動作テスト</t>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Djangoのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    templete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS上へのデプロイ(環境構築・動作確認)</t>
+    <rPh sb="11" eb="13">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  GoogleMapの動作</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  GoogleMap上の会社概要</t>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  GoogleMap上の関連ニュース</t>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  GoogleMap上の経路検索</t>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ユーザビリティテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  最終確認</t>
+    <rPh sb="2" eb="4">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linuxインフラ輪講の準備（鷲野）</t>
+    <rPh sb="9" eb="11">
+      <t>リンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ワシノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  出発地からの最寄駅の検索</t>
+    <rPh sb="2" eb="4">
+      <t>シュッパツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モヨリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  APIの申請</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  利用できる範囲の確認</t>
+    <rPh sb="2" eb="4">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  利用方法</t>
+    <rPh sb="2" eb="4">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +878,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -599,6 +955,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -650,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -878,6 +1241,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -886,7 +1262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,43 +1378,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,7 +1399,47 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,7 +1450,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="350">
+  <dxfs count="418">
     <dxf>
       <fill>
         <patternFill>
@@ -2492,160 +2872,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2866,370 +3092,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3476,6 +3338,968 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3843,13 +4667,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3864,57 +4688,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42522</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -4050,8 +4874,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -4211,13 +5035,13 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
       <c r="AA4" s="36"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -4354,7 +5178,7 @@
     <row r="8" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4391,11 +5215,9 @@
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="19" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4421,8 +5243,8 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -4434,7 +5256,7 @@
     <row r="10" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="19" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4460,8 +5282,8 @@
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -4471,11 +5293,9 @@
       <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="19" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4500,12 +5320,12 @@
       <c r="W11" s="2"/>
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="25"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="25"/>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -4513,10 +5333,10 @@
     </row>
     <row r="12" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4539,25 +5359,23 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="25"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="14"/>
     </row>
     <row r="13" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4580,25 +5398,25 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="30"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4621,25 +5439,23 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="30"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4662,28 +5478,26 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="30"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="14"/>
     </row>
     <row r="16" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -4703,25 +5517,25 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="25"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="38"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4744,23 +5558,23 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="19" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4783,23 +5597,23 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="2"/>
       <c r="AA18" s="27"/>
       <c r="AB18" s="25"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="27"/>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="19" t="s">
-        <v>20</v>
+      <c r="B19" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4822,24 +5636,26 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="27"/>
       <c r="AB19" s="25"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="27"/>
+      <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="30"/>
-    </row>
-    <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -4859,24 +5675,26 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="25"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="38"/>
-    </row>
-    <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="14"/>
+    </row>
+    <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -4896,24 +5714,26 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="25"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="38"/>
-    </row>
-    <row r="22" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="14"/>
+    </row>
+    <row r="22" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>15</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="28"/>
@@ -4935,24 +5755,24 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="25"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="38"/>
-    </row>
-    <row r="23" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>16</v>
-      </c>
-      <c r="B23" s="19"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="14"/>
+    </row>
+    <row r="23" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="28"/>
@@ -4974,24 +5794,24 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="25"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="38"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>17</v>
-      </c>
-      <c r="B24" s="19"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="28"/>
@@ -5015,22 +5835,22 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="27"/>
+      <c r="AE24" s="25"/>
       <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="38"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="14"/>
     </row>
     <row r="25" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>18</v>
-      </c>
-      <c r="B25" s="19"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="28"/>
@@ -5054,22 +5874,24 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="27"/>
+      <c r="AE25" s="25"/>
       <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="38"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>19</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="28"/>
@@ -5093,22 +5915,22 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="25"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>20</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="28"/>
@@ -5132,24 +5954,24 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="25"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="14"/>
     </row>
     <row r="28" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>21</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -5171,24 +5993,24 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="25"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>22</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -5210,57 +6032,1311 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="25"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
+        <v>8</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="38"/>
+    </row>
+    <row r="31" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="38"/>
+    </row>
+    <row r="32" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="14"/>
+    </row>
+    <row r="33" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="14"/>
+    </row>
+    <row r="34" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>9</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="30"/>
+    </row>
+    <row r="35" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="30"/>
+    </row>
+    <row r="36" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="30"/>
+    </row>
+    <row r="37" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="30"/>
+    </row>
+    <row r="38" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="30"/>
+    </row>
+    <row r="39" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="30"/>
+    </row>
+    <row r="40" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="30"/>
+    </row>
+    <row r="41" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="30"/>
+    </row>
+    <row r="42" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="30"/>
+    </row>
+    <row r="43" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>10</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="30"/>
+    </row>
+    <row r="44" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="30"/>
+    </row>
+    <row r="45" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="30"/>
+    </row>
+    <row r="46" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>11</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="15"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="38"/>
+    </row>
+    <row r="47" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="38"/>
+    </row>
+    <row r="48" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="38"/>
+    </row>
+    <row r="49" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>12</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="14"/>
+    </row>
+    <row r="50" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="14"/>
+    </row>
+    <row r="51" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="30"/>
+    </row>
+    <row r="52" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="38"/>
+    </row>
+    <row r="53" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="38"/>
+    </row>
+    <row r="54" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>15</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="38"/>
+    </row>
+    <row r="55" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>16</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="27"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="38"/>
+    </row>
+    <row r="56" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>17</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="27"/>
+      <c r="AI56" s="38"/>
+    </row>
+    <row r="57" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>18</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="38"/>
+    </row>
+    <row r="58" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <v>19</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="14"/>
+    </row>
+    <row r="59" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <v>20</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="14"/>
+    </row>
+    <row r="60" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <v>21</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="14"/>
+    </row>
+    <row r="61" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>22</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="14"/>
+    </row>
+    <row r="62" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>23</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="15"/>
+    </row>
+    <row r="63" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
@@ -5269,276 +7345,348 @@
     <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E7:Y11 AH2:AI11 E22:AI30 Z5:AG20">
-    <cfRule type="expression" dxfId="349" priority="101">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="102">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21:AI21 E21:Y21 E5:I5 M5:N5 Q5:Y5 E6:P6 T6:U6 X6:Y6">
-    <cfRule type="expression" dxfId="347" priority="99">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="100">
+  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E54:AI62 Z5:AG23 AH2:AI23 E7:Y23 Z34:AG38 Z26:AG31 Z41:AG52">
+    <cfRule type="expression" dxfId="377" priority="119">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="120">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH53:AI53 E53:Y53 E5:I5 M5:N5 Q5:Y5 E6:P6 T6:U6 X6:Y6">
+    <cfRule type="expression" dxfId="375" priority="117">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="118">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG4">
-    <cfRule type="expression" dxfId="345" priority="97">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="98">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="343" priority="95">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="96">
+    <cfRule type="expression" dxfId="373" priority="115">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="116">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG53">
+    <cfRule type="expression" dxfId="371" priority="113">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="114">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA4">
-    <cfRule type="expression" dxfId="341" priority="93">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="94">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA21">
-    <cfRule type="expression" dxfId="339" priority="91">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="92">
+    <cfRule type="expression" dxfId="369" priority="111">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="112">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA53">
+    <cfRule type="expression" dxfId="367" priority="109">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="110">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z4">
-    <cfRule type="expression" dxfId="337" priority="89">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="90">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="expression" dxfId="335" priority="87">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="88">
+    <cfRule type="expression" dxfId="365" priority="107">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="108">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z53">
+    <cfRule type="expression" dxfId="363" priority="105">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="106">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE4">
-    <cfRule type="expression" dxfId="333" priority="85">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="86">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="expression" dxfId="331" priority="83">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="84">
+    <cfRule type="expression" dxfId="361" priority="103">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="104">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE53">
+    <cfRule type="expression" dxfId="359" priority="101">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="102">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF4">
-    <cfRule type="expression" dxfId="329" priority="81">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="82">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="expression" dxfId="327" priority="79">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="80">
+    <cfRule type="expression" dxfId="357" priority="99">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="100">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF53">
+    <cfRule type="expression" dxfId="355" priority="97">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="98">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD4">
-    <cfRule type="expression" dxfId="325" priority="77">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="78">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD21">
-    <cfRule type="expression" dxfId="323" priority="75">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="76">
+    <cfRule type="expression" dxfId="353" priority="95">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="96">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD53">
+    <cfRule type="expression" dxfId="351" priority="93">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="94">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB4">
-    <cfRule type="expression" dxfId="321" priority="73">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="74">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB21">
-    <cfRule type="expression" dxfId="319" priority="71">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="72">
+    <cfRule type="expression" dxfId="349" priority="91">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="92">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB53">
+    <cfRule type="expression" dxfId="347" priority="89">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="90">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC4">
-    <cfRule type="expression" dxfId="317" priority="69">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="70">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="expression" dxfId="315" priority="67">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="68">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E7:AI30">
-    <cfRule type="expression" dxfId="313" priority="31">
+    <cfRule type="expression" dxfId="345" priority="87">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="88">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC53">
+    <cfRule type="expression" dxfId="343" priority="85">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="86">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E7:AI23 E34:AI38 E26:AI31 E41:AI62">
+    <cfRule type="expression" dxfId="341" priority="49">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="32">
+    <cfRule type="expression" dxfId="340" priority="50">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D30">
-    <cfRule type="expression" dxfId="311" priority="29">
+  <conditionalFormatting sqref="D4:D23 D34:D38 D26:D31 D41:D62">
+    <cfRule type="expression" dxfId="339" priority="47">
       <formula>C4&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="30">
+    <cfRule type="expression" dxfId="338" priority="48">
       <formula>C4&lt;D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="309" priority="27">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="28">
+    <cfRule type="expression" dxfId="337" priority="45">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="46">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="307" priority="25">
+    <cfRule type="expression" dxfId="335" priority="43">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="26">
+    <cfRule type="expression" dxfId="334" priority="44">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="305" priority="23">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="24">
+    <cfRule type="expression" dxfId="333" priority="41">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="42">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="303" priority="21">
+    <cfRule type="expression" dxfId="331" priority="39">
       <formula>AND(WEEKDAY(H$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="22">
+    <cfRule type="expression" dxfId="330" priority="40">
       <formula>AND(WEEKDAY(H$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="301" priority="19">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="20">
+    <cfRule type="expression" dxfId="329" priority="37">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="38">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="299" priority="17">
+    <cfRule type="expression" dxfId="327" priority="35">
       <formula>AND(WEEKDAY(J$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="18">
+    <cfRule type="expression" dxfId="326" priority="36">
       <formula>AND(WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="297" priority="15">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="16">
+    <cfRule type="expression" dxfId="325" priority="33">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="34">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="295" priority="13">
+    <cfRule type="expression" dxfId="323" priority="31">
       <formula>AND(WEEKDAY(O$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="14">
+    <cfRule type="expression" dxfId="322" priority="32">
       <formula>AND(WEEKDAY(O$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="293" priority="11">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="12">
+    <cfRule type="expression" dxfId="321" priority="29">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="30">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="291" priority="9">
+    <cfRule type="expression" dxfId="319" priority="27">
       <formula>AND(WEEKDAY(P$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="10">
+    <cfRule type="expression" dxfId="318" priority="28">
       <formula>AND(WEEKDAY(P$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S6">
-    <cfRule type="expression" dxfId="289" priority="7">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="8">
+    <cfRule type="expression" dxfId="317" priority="25">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="26">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S6">
-    <cfRule type="expression" dxfId="287" priority="5">
+    <cfRule type="expression" dxfId="315" priority="23">
       <formula>AND(WEEKDAY(Q$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="6">
+    <cfRule type="expression" dxfId="314" priority="24">
       <formula>AND(WEEKDAY(Q$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="expression" dxfId="285" priority="3">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="4">
+    <cfRule type="expression" dxfId="313" priority="21">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="22">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="expression" dxfId="283" priority="1">
+    <cfRule type="expression" dxfId="311" priority="19">
       <formula>AND(WEEKDAY(V$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="2">
+    <cfRule type="expression" dxfId="310" priority="20">
       <formula>AND(WEEKDAY(V$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32:AG33">
+    <cfRule type="expression" dxfId="309" priority="17">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="18">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:AI33">
+    <cfRule type="expression" dxfId="307" priority="15">
+      <formula>AND(WEEKDAY(E$3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="16">
+      <formula>AND(WEEKDAY(E$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="expression" dxfId="305" priority="13">
+      <formula>C32&gt;D32</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="14">
+      <formula>C32&lt;D32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24:AG25">
+    <cfRule type="expression" dxfId="303" priority="11">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="12">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:AI25">
+    <cfRule type="expression" dxfId="301" priority="9">
+      <formula>AND(WEEKDAY(E$3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="10">
+      <formula>AND(WEEKDAY(E$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="expression" dxfId="299" priority="7">
+      <formula>C24&gt;D24</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="8">
+      <formula>C24&lt;D24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z39:AG40">
+    <cfRule type="expression" dxfId="297" priority="5">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="6">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:AI40">
+    <cfRule type="expression" dxfId="295" priority="3">
+      <formula>AND(WEEKDAY(E$3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="4">
+      <formula>AND(WEEKDAY(E$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D40">
+    <cfRule type="expression" dxfId="293" priority="1">
+      <formula>C39&gt;D39</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="2">
+      <formula>C39&lt;D39</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5551,13 +7699,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5567,64 +7715,64 @@
     <col min="3" max="3" width="5.75" style="11" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="21" width="7.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" style="57" customWidth="1"/>
+    <col min="22" max="22" width="7.5" style="45" customWidth="1"/>
     <col min="23" max="35" width="7.5" style="1" customWidth="1"/>
     <col min="36" max="36" width="2.5" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42552</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -5699,7 +7847,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>42568</v>
       </c>
-      <c r="V2" s="54">
+      <c r="V2" s="42">
         <f t="shared" ca="1" si="0"/>
         <v>42569</v>
       </c>
@@ -5760,8 +7908,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -5836,7 +7984,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>42568</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="43">
         <f t="shared" ca="1" si="2"/>
         <v>42569</v>
       </c>
@@ -5902,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5923,7 +8071,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="53"/>
+      <c r="V4" s="41"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -5939,11 +8087,11 @@
       <c r="AI4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58">
-        <v>2</v>
+      <c r="A5" s="56">
+        <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5964,8 +8112,8 @@
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="27"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -5980,12 +8128,9 @@
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31">
-        <f>ROW() -3</f>
-        <v>3</v>
-      </c>
+      <c r="A6" s="57"/>
       <c r="B6" s="19" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6006,7 +8151,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
-      <c r="V6" s="53"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="27"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -6022,18 +8167,18 @@
       <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>18</v>
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -6047,7 +8192,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
-      <c r="V7" s="53"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="27"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -6063,31 +8208,33 @@
       <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
       <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -6102,33 +8249,31 @@
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>23</v>
+      <c r="A9" s="60"/>
+      <c r="B9" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -6143,11 +8288,9 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
+      <c r="A10" s="60"/>
       <c r="B10" s="19" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6168,7 +8311,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="53"/>
+      <c r="V10" s="41"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -6184,19 +8327,17 @@
       <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
-        <v>7</v>
-      </c>
+      <c r="A11" s="60"/>
       <c r="B11" s="19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -6209,7 +8350,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="53"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -6225,32 +8366,30 @@
       <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>30</v>
+      <c r="A12" s="60"/>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="25"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="53"/>
+      <c r="V12" s="41"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -6266,32 +8405,30 @@
       <c r="AI12" s="14"/>
     </row>
     <row r="13" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
-        <v>9</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>26</v>
+      <c r="A13" s="60"/>
+      <c r="B13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="25"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="53"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -6307,22 +8444,20 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50">
-        <v>10</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>18</v>
+      <c r="A14" s="60"/>
+      <c r="B14" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -6332,7 +8467,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="53"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -6348,30 +8483,32 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
       <c r="B15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="27"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="53"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -6388,10 +8525,10 @@
     </row>
     <row r="16" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6399,40 +8536,40 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>31</v>
+      <c r="A17" s="31">
+        <v>9</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6441,38 +8578,39 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="53"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Z17" s="37"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>32</v>
+      <c r="A18" s="54">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6481,80 +8619,78 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="27"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
+      <c r="A19" s="55"/>
       <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="27"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="14"/>
     </row>
     <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6569,33 +8705,33 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="27"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6610,33 +8746,32 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="53"/>
+      <c r="V21" s="41"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="33"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6651,33 +8786,33 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="2"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="27"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="33"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6691,31 +8826,35 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="33"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="6">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2"/>
@@ -6735,26 +8874,30 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="27"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="14"/>
     </row>
     <row r="25" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="6">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -6772,26 +8915,30 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="53"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="33"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -6809,28 +8956,30 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="53"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="33"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>9</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6848,25 +8997,23 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="53"/>
+      <c r="V27" s="41"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="33"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="14"/>
     </row>
     <row r="28" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>10</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="19"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6887,7 +9034,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="53"/>
+      <c r="V28" s="41"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -6903,12 +9050,10 @@
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>20</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6926,7 +9071,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="53"/>
+      <c r="V29" s="41"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -6942,12 +9087,10 @@
       <c r="AI29" s="14"/>
     </row>
     <row r="30" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>21</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -6965,7 +9108,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="53"/>
+      <c r="V30" s="41"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -6982,11 +9125,11 @@
     </row>
     <row r="31" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>22</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -7004,7 +9147,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="53"/>
+      <c r="V31" s="41"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -7021,9 +9164,9 @@
     </row>
     <row r="32" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>23</v>
-      </c>
-      <c r="B32" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="2"/>
@@ -7043,7 +9186,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="53"/>
+      <c r="V32" s="41"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -7060,9 +9203,9 @@
     </row>
     <row r="33" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>24</v>
-      </c>
-      <c r="B33" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="2"/>
@@ -7082,7 +9225,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="53"/>
+      <c r="V33" s="41"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -7099,7 +9242,7 @@
     </row>
     <row r="34" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="8"/>
@@ -7121,7 +9264,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="53"/>
+      <c r="V34" s="41"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -7138,11 +9281,11 @@
     </row>
     <row r="35" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
-        <v>26</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -7160,7 +9303,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="53"/>
+      <c r="V35" s="41"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -7177,11 +9320,11 @@
     </row>
     <row r="36" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -7199,7 +9342,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="53"/>
+      <c r="V36" s="41"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -7214,366 +9357,562 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="14"/>
     </row>
-    <row r="37" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
+        <v>24</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="14"/>
+    </row>
+    <row r="38" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>25</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="14"/>
+    </row>
+    <row r="39" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>26</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="14"/>
+    </row>
+    <row r="40" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>27</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="14"/>
+    </row>
+    <row r="41" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>28</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="15"/>
-    </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="15"/>
+    </row>
+    <row r="42" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E1:AI1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:Y3 E28:Y37 AH28:AI37 AH2:AI4 F4:G4 J4:Y4 E7:AI9 Z5:AI6 E6:Y6">
-    <cfRule type="expression" dxfId="281" priority="101">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="102">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:Y15 AH27:AI27 E27:Y27 E5:I5 M5:N5 Q5:Y5 AH10:AI15">
-    <cfRule type="expression" dxfId="279" priority="99">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="100">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28:AG37 AG2:AG4">
-    <cfRule type="expression" dxfId="277" priority="97">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="98">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27 AG10:AG15">
-    <cfRule type="expression" dxfId="275" priority="95">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="96">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA28:AA37 AA2:AA4">
-    <cfRule type="expression" dxfId="273" priority="93">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="94">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27 AA10:AA15">
-    <cfRule type="expression" dxfId="271" priority="91">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="92">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z28:Z37 Z2:Z4">
-    <cfRule type="expression" dxfId="269" priority="89">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="90">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27 Z10:Z15">
-    <cfRule type="expression" dxfId="267" priority="87">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="88">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28:AE37 AE2:AE4">
-    <cfRule type="expression" dxfId="265" priority="85">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="86">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27 AE10:AE15">
-    <cfRule type="expression" dxfId="263" priority="83">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="84">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28:AF37 AF2:AF4">
-    <cfRule type="expression" dxfId="261" priority="81">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="82">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27 AF10:AF15">
-    <cfRule type="expression" dxfId="259" priority="79">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="80">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD28:AD37 AD2:AD4">
-    <cfRule type="expression" dxfId="257" priority="77">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="78">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD27 AD10:AD15">
-    <cfRule type="expression" dxfId="255" priority="75">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="76">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB28:AB37 AB2:AB4">
-    <cfRule type="expression" dxfId="253" priority="73">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="74">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB27 AB10:AB15">
-    <cfRule type="expression" dxfId="251" priority="71">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="72">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28:AC37 AC2:AC4">
-    <cfRule type="expression" dxfId="249" priority="69">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="70">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC27 AC10:AC15">
-    <cfRule type="expression" dxfId="247" priority="67">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="68">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AG26">
-    <cfRule type="expression" dxfId="245" priority="63">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="64">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AA26">
-    <cfRule type="expression" dxfId="243" priority="59">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="60">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16 Z18:Z26">
-    <cfRule type="expression" dxfId="241" priority="55">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="56">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AE26">
-    <cfRule type="expression" dxfId="239" priority="51">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="52">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AF26">
-    <cfRule type="expression" dxfId="237" priority="47">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="48">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16:AD26">
-    <cfRule type="expression" dxfId="235" priority="43">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="44">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB16:AB26">
-    <cfRule type="expression" dxfId="233" priority="39">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="40">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16:AC26">
-    <cfRule type="expression" dxfId="231" priority="35">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="36">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E18:AI37 AA17:AI17 E17:X17 E6:AI16">
-    <cfRule type="expression" dxfId="229" priority="31">
+  <conditionalFormatting sqref="E2:Y3 E32:Y41 AH32:AI41 AH2:AI4 F4:G4 J4:Y4 E5:AI7">
+    <cfRule type="expression" dxfId="291" priority="123">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="124">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:Y8 AH31:AI31 E31:Y31 AH8:AI8 AH12:AI19 E12:Y19">
+    <cfRule type="expression" dxfId="289" priority="121">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="122">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32:AG41 AG2:AG4">
+    <cfRule type="expression" dxfId="287" priority="119">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="120">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31 AG8 AG12:AG19">
+    <cfRule type="expression" dxfId="285" priority="117">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="118">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA32:AA41 AA2:AA4">
+    <cfRule type="expression" dxfId="283" priority="115">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="116">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31 AA8 AA12:AA19">
+    <cfRule type="expression" dxfId="281" priority="113">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="114">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32:Z41 Z2:Z4">
+    <cfRule type="expression" dxfId="279" priority="111">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="112">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31 Z8 Z12:Z19">
+    <cfRule type="expression" dxfId="277" priority="109">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="110">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32:AE41 AE2:AE4">
+    <cfRule type="expression" dxfId="275" priority="107">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="108">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31 AE8 AE12:AE19">
+    <cfRule type="expression" dxfId="273" priority="105">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="106">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32:AF41 AF2:AF4">
+    <cfRule type="expression" dxfId="271" priority="103">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="104">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31 AF8 AF12:AF19">
+    <cfRule type="expression" dxfId="269" priority="101">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="102">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32:AD41 AD2:AD4">
+    <cfRule type="expression" dxfId="267" priority="99">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="100">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31 AD8 AD12:AD19">
+    <cfRule type="expression" dxfId="265" priority="97">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="98">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB32:AB41 AB2:AB4">
+    <cfRule type="expression" dxfId="263" priority="95">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="96">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB31 AB8 AB12:AB19">
+    <cfRule type="expression" dxfId="261" priority="93">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="94">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32:AC41 AC2:AC4">
+    <cfRule type="expression" dxfId="259" priority="91">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="92">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31 AC8 AC12:AC19">
+    <cfRule type="expression" dxfId="257" priority="89">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="90">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20:AG30">
+    <cfRule type="expression" dxfId="255" priority="85">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="86">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA20:AA30">
+    <cfRule type="expression" dxfId="253" priority="81">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="82">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20 Z22:Z30">
+    <cfRule type="expression" dxfId="251" priority="77">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="78">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20:AE30">
+    <cfRule type="expression" dxfId="249" priority="73">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="74">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20:AF30">
+    <cfRule type="expression" dxfId="247" priority="69">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="70">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20:AD30">
+    <cfRule type="expression" dxfId="245" priority="65">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="66">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB20:AB30">
+    <cfRule type="expression" dxfId="243" priority="61">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="62">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20:AC30">
+    <cfRule type="expression" dxfId="241" priority="57">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="58">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E22:AI41 AA21:AI21 E21:X21 E5:AI8 E12:AI20">
+    <cfRule type="expression" dxfId="239" priority="53">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="32">
+    <cfRule type="expression" dxfId="238" priority="54">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D37">
-    <cfRule type="expression" dxfId="227" priority="29">
+  <conditionalFormatting sqref="D4:D8 D12:D41">
+    <cfRule type="expression" dxfId="237" priority="51">
       <formula>C4&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="30">
+    <cfRule type="expression" dxfId="236" priority="52">
       <formula>C4&lt;D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="225" priority="27">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="28">
+    <cfRule type="expression" dxfId="235" priority="49">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="50">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="223" priority="25">
+    <cfRule type="expression" dxfId="233" priority="47">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="26">
+    <cfRule type="expression" dxfId="232" priority="48">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="221" priority="23">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="24">
+    <cfRule type="expression" dxfId="231" priority="45">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="46">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="219" priority="21">
+    <cfRule type="expression" dxfId="229" priority="43">
       <formula>AND(WEEKDAY(H$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="22">
+    <cfRule type="expression" dxfId="228" priority="44">
       <formula>AND(WEEKDAY(H$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="217" priority="19">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="20">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="215" priority="17">
-      <formula>AND(WEEKDAY(J$3)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="18">
-      <formula>AND(WEEKDAY(J$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="213" priority="15">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="16">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="211" priority="13">
-      <formula>AND(WEEKDAY(O$3)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="14">
-      <formula>AND(WEEKDAY(O$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="209" priority="11">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="12">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="207" priority="9">
-      <formula>AND(WEEKDAY(P$3)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="10">
-      <formula>AND(WEEKDAY(P$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17">
-    <cfRule type="expression" dxfId="205" priority="107">
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="expression" dxfId="227" priority="129">
       <formula>AND(WEEKDAY(Y$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="108">
+    <cfRule type="expression" dxfId="226" priority="130">
       <formula>AND(WEEKDAY(Y$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9:AI11 E9:Y11">
+    <cfRule type="expression" dxfId="225" priority="21">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="22">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AG11">
+    <cfRule type="expression" dxfId="223" priority="19">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="20">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA11">
+    <cfRule type="expression" dxfId="221" priority="17">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="18">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:Z11">
+    <cfRule type="expression" dxfId="219" priority="15">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="16">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE11">
+    <cfRule type="expression" dxfId="217" priority="13">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="14">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF11">
+    <cfRule type="expression" dxfId="215" priority="11">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="12">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9:AD11">
+    <cfRule type="expression" dxfId="213" priority="9">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="10">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AB11">
+    <cfRule type="expression" dxfId="211" priority="7">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="8">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AC11">
+    <cfRule type="expression" dxfId="209" priority="5">
+      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="6">
+      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:AI11">
+    <cfRule type="expression" dxfId="207" priority="3">
+      <formula>AND(WEEKDAY(E$3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="4">
+      <formula>AND(WEEKDAY(E$3)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="expression" dxfId="205" priority="1">
+      <formula>C9&gt;D9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="2">
+      <formula>C9&lt;D9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7607,57 +9946,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42583</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -7793,8 +10132,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -7935,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -7977,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -8019,7 +10358,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -8061,7 +10400,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -8303,7 +10642,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -9578,35 +11917,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9641,57 +11980,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>41852</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="53"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -9827,8 +12166,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">H26.8!$A$1:$AK$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">H28.6!$A$1:$AK$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">H28.6!$A$1:$AK$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">H28.7!$A$1:$AK$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">H28.8!$A$1:$AK$34</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>活動内容</t>
     <rPh sb="0" eb="2">
@@ -864,6 +864,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  API申請</t>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1399,6 +1406,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,13 +1449,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1450,7 +1457,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="418">
+  <dxfs count="378">
     <dxf>
       <fill>
         <patternFill>
@@ -4036,270 +4043,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4667,13 +4410,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK63"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4688,57 +4431,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42522</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -4874,8 +4617,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -5612,7 +5355,7 @@
     </row>
     <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="8"/>
@@ -5651,7 +5394,7 @@
     </row>
     <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="46" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="8"/>
@@ -5690,7 +5433,7 @@
     </row>
     <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="46" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="8"/>
@@ -5771,7 +5514,7 @@
     <row r="23" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5807,10 +5550,10 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="14"/>
     </row>
-    <row r="24" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5833,15 +5576,15 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
+      <c r="AB24" s="25"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="25"/>
-      <c r="AF24" s="27"/>
+      <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="14"/>
@@ -5849,7 +5592,7 @@
     <row r="25" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5886,11 +5629,9 @@
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>7</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="19" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5920,16 +5661,18 @@
       <c r="AB26" s="27"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="27"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>7</v>
+      </c>
       <c r="B27" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -5968,7 +5711,7 @@
     <row r="28" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6007,7 +5750,7 @@
     <row r="29" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6044,11 +5787,9 @@
       <c r="AI29" s="14"/>
     </row>
     <row r="30" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>8</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="19" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -6079,15 +5820,17 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="38"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="14"/>
     </row>
     <row r="31" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
       <c r="B31" s="19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -6126,7 +5869,7 @@
     <row r="32" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -6159,13 +5902,13 @@
       <c r="AE32" s="27"/>
       <c r="AF32" s="27"/>
       <c r="AG32" s="25"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="14"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="38"/>
     </row>
     <row r="33" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -6202,11 +5945,9 @@
       <c r="AI33" s="14"/>
     </row>
     <row r="34" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
-        <v>9</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -6233,19 +5974,21 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
       <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="30"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6">
+        <v>9</v>
+      </c>
       <c r="B35" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6284,7 +6027,7 @@
     <row r="36" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -6323,7 +6066,7 @@
     <row r="37" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6362,7 +6105,7 @@
     <row r="38" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -6401,7 +6144,7 @@
     <row r="39" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -6440,7 +6183,7 @@
     <row r="40" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -6479,7 +6222,7 @@
     <row r="41" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -6518,7 +6261,7 @@
     <row r="42" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -6555,11 +6298,9 @@
       <c r="AI42" s="30"/>
     </row>
     <row r="43" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
-        <v>10</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -6591,14 +6332,16 @@
       <c r="AD43" s="25"/>
       <c r="AE43" s="25"/>
       <c r="AF43" s="25"/>
-      <c r="AG43" s="40"/>
+      <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
       <c r="AI43" s="30"/>
     </row>
     <row r="44" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>10</v>
+      </c>
       <c r="B44" s="19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -6637,7 +6380,7 @@
     <row r="45" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -6674,14 +6417,12 @@
       <c r="AI45" s="30"/>
     </row>
     <row r="46" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
-        <v>11</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -6703,21 +6444,23 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="38"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="30"/>
     </row>
     <row r="47" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
+      <c r="A47" s="6">
+        <v>11</v>
+      </c>
       <c r="B47" s="19" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -6747,7 +6490,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="25"/>
+      <c r="AE47" s="27"/>
       <c r="AF47" s="27"/>
       <c r="AG47" s="27"/>
       <c r="AH47" s="27"/>
@@ -6756,7 +6499,7 @@
     <row r="48" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -6786,21 +6529,19 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="27"/>
+      <c r="AE48" s="25"/>
       <c r="AF48" s="27"/>
       <c r="AG48" s="27"/>
       <c r="AH48" s="27"/>
       <c r="AI48" s="38"/>
     </row>
     <row r="49" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
-        <v>12</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -6822,21 +6563,23 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
+      <c r="AE49" s="27"/>
       <c r="AF49" s="27"/>
       <c r="AG49" s="27"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="14"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="38"/>
     </row>
     <row r="50" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
+      <c r="A50" s="6">
+        <v>12</v>
+      </c>
       <c r="B50" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -6863,11 +6606,11 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="25"/>
+      <c r="AB50" s="27"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+      <c r="AF50" s="27"/>
       <c r="AG50" s="27"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="14"/>
@@ -6875,7 +6618,7 @@
     <row r="51" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -6909,13 +6652,15 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="27"/>
       <c r="AH51" s="2"/>
-      <c r="AI51" s="30"/>
+      <c r="AI51" s="14"/>
     </row>
     <row r="52" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -6937,16 +6682,16 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="25"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
       <c r="AG52" s="27"/>
-      <c r="AH52" s="27"/>
-      <c r="AI52" s="38"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="30"/>
     </row>
     <row r="53" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
@@ -6986,12 +6731,10 @@
       <c r="AI53" s="38"/>
     </row>
     <row r="54" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6">
-        <v>15</v>
-      </c>
+      <c r="A54" s="6"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -7026,7 +6769,7 @@
     </row>
     <row r="55" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="8"/>
@@ -7065,7 +6808,7 @@
     </row>
     <row r="56" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="8"/>
@@ -7104,7 +6847,7 @@
     </row>
     <row r="57" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="8"/>
@@ -7143,7 +6886,7 @@
     </row>
     <row r="58" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="8"/>
@@ -7174,17 +6917,17 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="14"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="27"/>
+      <c r="AI58" s="38"/>
     </row>
     <row r="59" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
-        <v>20</v>
-      </c>
-      <c r="B59" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="B59" s="19"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="28"/>
@@ -7221,11 +6964,11 @@
     </row>
     <row r="60" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
-        <v>21</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -7260,9 +7003,9 @@
     </row>
     <row r="61" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
-        <v>22</v>
-      </c>
-      <c r="B61" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B61" s="19"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="28"/>
@@ -7297,46 +7040,85 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="14"/>
     </row>
-    <row r="62" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
+        <v>22</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="14"/>
+    </row>
+    <row r="63" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>23</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="15"/>
-    </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="15"/>
+    </row>
+    <row r="64" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
@@ -7345,7 +7127,7 @@
     <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E54:AI62 Z5:AG23 AH2:AI23 E7:Y23 Z34:AG38 Z26:AG31 Z41:AG52">
+  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E55:AI63 Z5:AG24 AH2:AI24 E7:Y24 Z35:AG39 Z27:AG32 Z42:AG53">
     <cfRule type="expression" dxfId="377" priority="119">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7353,7 +7135,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH53:AI53 E53:Y53 E5:I5 M5:N5 Q5:Y5 E6:P6 T6:U6 X6:Y6">
+  <conditionalFormatting sqref="AH54:AI54 E54:Y54 E5:I5 M5:N5 Q5:Y5 E6:P6 T6:U6 X6:Y6">
     <cfRule type="expression" dxfId="375" priority="117">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7369,7 +7151,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG53">
+  <conditionalFormatting sqref="AG54">
     <cfRule type="expression" dxfId="371" priority="113">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7385,7 +7167,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA53">
+  <conditionalFormatting sqref="AA54">
     <cfRule type="expression" dxfId="367" priority="109">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7401,7 +7183,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z53">
+  <conditionalFormatting sqref="Z54">
     <cfRule type="expression" dxfId="363" priority="105">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7417,7 +7199,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE53">
+  <conditionalFormatting sqref="AE54">
     <cfRule type="expression" dxfId="359" priority="101">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7433,7 +7215,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF53">
+  <conditionalFormatting sqref="AF54">
     <cfRule type="expression" dxfId="355" priority="97">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7449,7 +7231,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD53">
+  <conditionalFormatting sqref="AD54">
     <cfRule type="expression" dxfId="351" priority="93">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7465,7 +7247,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB53">
+  <conditionalFormatting sqref="AB54">
     <cfRule type="expression" dxfId="347" priority="89">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7481,7 +7263,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC53">
+  <conditionalFormatting sqref="AC54">
     <cfRule type="expression" dxfId="343" priority="85">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7489,7 +7271,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E7:AI23 E34:AI38 E26:AI31 E41:AI62">
+  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E7:AI24 E35:AI39 E27:AI32 E42:AI63">
     <cfRule type="expression" dxfId="341" priority="49">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
@@ -7497,7 +7279,7 @@
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23 D34:D38 D26:D31 D41:D62">
+  <conditionalFormatting sqref="D4:D24 D35:D39 D27:D32 D42:D63">
     <cfRule type="expression" dxfId="339" priority="47">
       <formula>C4&gt;D4</formula>
     </cfRule>
@@ -7617,7 +7399,7 @@
       <formula>AND(WEEKDAY(V$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z32:AG33">
+  <conditionalFormatting sqref="Z33:AG34">
     <cfRule type="expression" dxfId="309" priority="17">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7625,7 +7407,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:AI33">
+  <conditionalFormatting sqref="E33:AI34">
     <cfRule type="expression" dxfId="307" priority="15">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
@@ -7633,15 +7415,15 @@
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="D33:D34">
     <cfRule type="expression" dxfId="305" priority="13">
-      <formula>C32&gt;D32</formula>
+      <formula>C33&gt;D33</formula>
     </cfRule>
     <cfRule type="expression" dxfId="304" priority="14">
-      <formula>C32&lt;D32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24:AG25">
+      <formula>C33&lt;D33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:AG26">
     <cfRule type="expression" dxfId="303" priority="11">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7649,7 +7431,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:AI25">
+  <conditionalFormatting sqref="E25:AI26">
     <cfRule type="expression" dxfId="301" priority="9">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
@@ -7657,15 +7439,15 @@
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
+  <conditionalFormatting sqref="D25:D26">
     <cfRule type="expression" dxfId="299" priority="7">
-      <formula>C24&gt;D24</formula>
+      <formula>C25&gt;D25</formula>
     </cfRule>
     <cfRule type="expression" dxfId="298" priority="8">
-      <formula>C24&lt;D24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z39:AG40">
+      <formula>C25&lt;D25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z40:AG41">
     <cfRule type="expression" dxfId="297" priority="5">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -7673,7 +7455,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:AI40">
+  <conditionalFormatting sqref="E40:AI41">
     <cfRule type="expression" dxfId="295" priority="3">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
@@ -7681,12 +7463,12 @@
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40">
+  <conditionalFormatting sqref="D40:D41">
     <cfRule type="expression" dxfId="293" priority="1">
-      <formula>C39&gt;D39</formula>
+      <formula>C40&gt;D40</formula>
     </cfRule>
     <cfRule type="expression" dxfId="292" priority="2">
-      <formula>C39&lt;D39</formula>
+      <formula>C40&lt;D40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7722,57 +7504,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42552</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -7908,8 +7690,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -8087,7 +7869,7 @@
       <c r="AI4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56">
+      <c r="A5" s="59">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -8128,7 +7910,7 @@
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
@@ -8249,7 +8031,7 @@
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="19" t="s">
         <v>80</v>
       </c>
@@ -8288,7 +8070,7 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
@@ -8327,7 +8109,7 @@
       <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="19" t="s">
         <v>81</v>
       </c>
@@ -8366,7 +8148,7 @@
       <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
@@ -8405,7 +8187,7 @@
       <c r="AI12" s="14"/>
     </row>
     <row r="13" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="19" t="s">
         <v>84</v>
       </c>
@@ -8444,7 +8226,7 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="19" t="s">
         <v>85</v>
       </c>
@@ -8606,7 +8388,7 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54">
+      <c r="A18" s="57">
         <v>10</v>
       </c>
       <c r="B18" s="32" t="s">
@@ -8647,7 +8429,7 @@
       <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="19" t="s">
         <v>86</v>
       </c>
@@ -9946,57 +9728,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42583</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -10132,8 +9914,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -11980,57 +11762,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>41852</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -12166,8 +11948,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7935" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="H28.6" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">H26.8!$A$1:$AK$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">H28.6!$A$1:$AK$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">H28.7!$A$1:$AK$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">H28.7!$A$1:$AK$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">H28.8!$A$1:$AK$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t>活動内容</t>
     <rPh sb="0" eb="2">
@@ -509,16 +509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  gmaps.jsの使い方</t>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  APIの使い方</t>
     <rPh sb="6" eb="7">
       <t>ツカ</t>
@@ -871,6 +861,180 @@
     <t xml:space="preserve">  API申請</t>
     <rPh sb="5" eb="7">
       <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能の連携</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  html(Gmap)と駅探APIの連携</t>
+    <rPh sb="13" eb="15">
+      <t>エキタン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Viewの作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    緯度経度の情報の受け渡し方調査</t>
+    <rPh sb="4" eb="6">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    HTML、Gmapで表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ルートの線</t>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      経由駅と料金時間</t>
+    <rPh sb="6" eb="8">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  html(Gmap)と会社概要・ニュースAPIの連携</t>
+    <rPh sb="13" eb="15">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    会社名から住所検索</t>
+    <rPh sb="4" eb="7">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      Wikipedia APIから引っ張る</t>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    会社概要の表示</t>
+    <rPh sb="4" eb="6">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    会社名とニュースAPIの連携</t>
+    <rPh sb="4" eb="7">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ニュースの表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  使い方</t>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      簡単な会社名→住所DB作成</t>
+    <rPh sb="6" eb="8">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -970,7 +1134,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,8 +1183,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1437,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1269,7 +1772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,6 +1916,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,6 +1955,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1457,7 +2083,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="378">
+  <dxfs count="370">
     <dxf>
       <fill>
         <patternFill>
@@ -2887,62 +3513,6 @@
       <font>
         <color rgb="FF0070C0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4412,11 +4982,11 @@
   </sheetPr>
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4431,57 +5001,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42522</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
-      <c r="AK1" s="21" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
+      <c r="AK1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -4612,13 +5182,13 @@
         <f t="shared" ref="AI2" ca="1" si="1">AH2+1</f>
         <v>42552</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -4960,7 +5530,7 @@
     <row r="9" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4999,7 +5569,7 @@
     <row r="10" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5035,10 +5605,10 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="14"/>
     </row>
-    <row r="11" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -5065,7 +5635,7 @@
       <c r="Y11" s="27"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="76"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -5074,7 +5644,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -5105,9 +5675,9 @@
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="2"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="65"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -5118,7 +5688,7 @@
     <row r="13" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5144,9 +5714,9 @@
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="2"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="65"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -5159,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5185,9 +5755,9 @@
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="2"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="65"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -5198,7 +5768,7 @@
     <row r="15" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5224,9 +5794,9 @@
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="2"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="65"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -5234,10 +5804,10 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="14"/>
     </row>
-    <row r="16" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5263,9 +5833,9 @@
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="2"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="65"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -5273,7 +5843,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="14"/>
     </row>
-    <row r="17" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -5304,9 +5874,9 @@
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="2"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="65"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -5314,10 +5884,10 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="14"/>
     </row>
-    <row r="18" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
-        <v>58</v>
+      <c r="B18" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5343,9 +5913,9 @@
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="2"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="65"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -5353,10 +5923,10 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="14"/>
     </row>
-    <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="47" t="s">
-        <v>59</v>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5382,20 +5952,20 @@
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="2"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="65"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="AE19" s="63"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="14"/>
     </row>
-    <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="46" t="s">
-        <v>56</v>
+      <c r="B20" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -5421,20 +5991,20 @@
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="2"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="65"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="63"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6"/>
       <c r="B21" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5460,17 +6030,17 @@
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="2"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="65"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="76"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5501,20 +6071,20 @@
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="63"/>
       <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5540,20 +6110,20 @@
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="63"/>
       <c r="AI23" s="14"/>
     </row>
-    <row r="24" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5579,20 +6149,20 @@
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="63"/>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5619,19 +6189,19 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
+      <c r="AB25" s="67"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="63"/>
       <c r="AI25" s="14"/>
     </row>
-    <row r="26" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5660,14 +6230,14 @@
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="63"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>7</v>
       </c>
@@ -5702,16 +6272,16 @@
       <c r="AB27" s="27"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="14"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="84"/>
     </row>
     <row r="28" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5743,14 +6313,14 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="27"/>
       <c r="AF28" s="25"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="14"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="84"/>
     </row>
     <row r="29" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -5782,14 +6352,14 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="25"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="14"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="84"/>
     </row>
     <row r="30" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -5821,9 +6391,9 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="27"/>
       <c r="AF30" s="25"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="14"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="84"/>
     </row>
     <row r="31" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
@@ -5862,14 +6432,14 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
-      <c r="AG31" s="25"/>
+      <c r="AG31" s="63"/>
       <c r="AH31" s="27"/>
       <c r="AI31" s="38"/>
     </row>
     <row r="32" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -5901,14 +6471,14 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="27"/>
       <c r="AF32" s="27"/>
-      <c r="AG32" s="25"/>
+      <c r="AG32" s="63"/>
       <c r="AH32" s="27"/>
       <c r="AI32" s="38"/>
     </row>
     <row r="33" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -5940,14 +6510,14 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
-      <c r="AG33" s="25"/>
+      <c r="AG33" s="63"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="14"/>
     </row>
-    <row r="34" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -5974,16 +6544,16 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="14"/>
-    </row>
-    <row r="35" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="90"/>
+    </row>
+    <row r="35" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -6014,20 +6584,20 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="30"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="94"/>
     </row>
     <row r="36" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -6053,20 +6623,20 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="25"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="78"/>
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
       <c r="AE36" s="25"/>
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
       <c r="AH36" s="25"/>
-      <c r="AI36" s="30"/>
+      <c r="AI36" s="95"/>
     </row>
     <row r="37" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6092,20 +6662,20 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="25"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="78"/>
       <c r="AC37" s="25"/>
       <c r="AD37" s="25"/>
       <c r="AE37" s="25"/>
       <c r="AF37" s="25"/>
       <c r="AG37" s="25"/>
       <c r="AH37" s="25"/>
-      <c r="AI37" s="30"/>
+      <c r="AI37" s="95"/>
     </row>
     <row r="38" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -6131,20 +6701,20 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="25"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="78"/>
       <c r="AC38" s="25"/>
       <c r="AD38" s="25"/>
       <c r="AE38" s="25"/>
       <c r="AF38" s="25"/>
       <c r="AG38" s="25"/>
       <c r="AH38" s="25"/>
-      <c r="AI38" s="30"/>
+      <c r="AI38" s="95"/>
     </row>
     <row r="39" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -6170,20 +6740,20 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="25"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="78"/>
       <c r="AC39" s="25"/>
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
       <c r="AF39" s="25"/>
       <c r="AG39" s="25"/>
       <c r="AH39" s="25"/>
-      <c r="AI39" s="30"/>
+      <c r="AI39" s="95"/>
     </row>
     <row r="40" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -6209,20 +6779,20 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="25"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="78"/>
       <c r="AC40" s="25"/>
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
-      <c r="AI40" s="30"/>
+      <c r="AI40" s="95"/>
     </row>
     <row r="41" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -6248,20 +6818,20 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="25"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="78"/>
       <c r="AC41" s="25"/>
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
       <c r="AH41" s="25"/>
-      <c r="AI41" s="30"/>
+      <c r="AI41" s="95"/>
     </row>
     <row r="42" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -6287,20 +6857,20 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="25"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="78"/>
       <c r="AC42" s="25"/>
       <c r="AD42" s="25"/>
       <c r="AE42" s="25"/>
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
       <c r="AH42" s="25"/>
-      <c r="AI42" s="30"/>
+      <c r="AI42" s="95"/>
     </row>
     <row r="43" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -6326,15 +6896,15 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="25"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="78"/>
       <c r="AC43" s="25"/>
       <c r="AD43" s="25"/>
       <c r="AE43" s="25"/>
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
-      <c r="AI43" s="30"/>
+      <c r="AI43" s="95"/>
     </row>
     <row r="44" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
@@ -6367,20 +6937,20 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="25"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="78"/>
       <c r="AC44" s="25"/>
       <c r="AD44" s="25"/>
       <c r="AE44" s="25"/>
       <c r="AF44" s="25"/>
       <c r="AG44" s="40"/>
       <c r="AH44" s="25"/>
-      <c r="AI44" s="30"/>
+      <c r="AI44" s="95"/>
     </row>
     <row r="45" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -6406,20 +6976,20 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="25"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="78"/>
       <c r="AC45" s="25"/>
       <c r="AD45" s="25"/>
       <c r="AE45" s="25"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="40"/>
       <c r="AH45" s="25"/>
-      <c r="AI45" s="30"/>
-    </row>
-    <row r="46" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI45" s="95"/>
+    </row>
+    <row r="46" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -6445,17 +7015,17 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="40"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="30"/>
-    </row>
-    <row r="47" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="96"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="97"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="98"/>
+    </row>
+    <row r="47" spans="1:35" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>11</v>
       </c>
@@ -6487,19 +7057,19 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="38"/>
-    </row>
-    <row r="48" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+      <c r="AD47" s="91"/>
+      <c r="AE47" s="100"/>
+      <c r="AF47" s="67"/>
+      <c r="AG47" s="67"/>
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="92"/>
+    </row>
+    <row r="48" spans="1:35" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -6528,17 +7098,17 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="27"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="68"/>
+      <c r="AF48" s="99"/>
       <c r="AG48" s="27"/>
       <c r="AH48" s="27"/>
       <c r="AI48" s="38"/>
     </row>
-    <row r="49" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -6568,13 +7138,13 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="27"/>
+      <c r="AE49" s="67"/>
       <c r="AF49" s="27"/>
       <c r="AG49" s="27"/>
       <c r="AH49" s="27"/>
       <c r="AI49" s="38"/>
     </row>
-    <row r="50" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>12</v>
       </c>
@@ -6606,7 +7176,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
+      <c r="AB50" s="89"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -6615,7 +7185,7 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="14"/>
     </row>
-    <row r="51" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="19" t="s">
         <v>19</v>
@@ -6644,17 +7214,17 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="2"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="65"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AF51" s="63"/>
       <c r="AG51" s="27"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="14"/>
     </row>
-    <row r="52" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" ht="32.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="19" t="s">
         <v>20</v>
@@ -6684,11 +7254,11 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="25"/>
+      <c r="AB52" s="67"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
       <c r="AG52" s="27"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="30"/>
@@ -7127,347 +7697,347 @@
     <mergeCell ref="E1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E55:AI63 Z5:AG24 AH2:AI24 E7:Y24 Z35:AG39 Z27:AG32 Z42:AG53">
-    <cfRule type="expression" dxfId="377" priority="119">
+  <conditionalFormatting sqref="E2:Y3 F4:G4 J4:Y4 E55:AI63 Z5:AG17 AH2:AI17 E7:Y17 Z35:AG39 Z27:AG32 Z42:AG53 E18:AI24">
+    <cfRule type="expression" dxfId="369" priority="119">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="120">
+    <cfRule type="expression" dxfId="368" priority="120">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AI54 E54:Y54 E5:I5 M5:N5 Q5:Y5 E6:P6 T6:U6 X6:Y6">
-    <cfRule type="expression" dxfId="375" priority="117">
+    <cfRule type="expression" dxfId="367" priority="117">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="118">
+    <cfRule type="expression" dxfId="366" priority="118">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG4">
-    <cfRule type="expression" dxfId="373" priority="115">
+    <cfRule type="expression" dxfId="365" priority="115">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="116">
+    <cfRule type="expression" dxfId="364" priority="116">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG54">
-    <cfRule type="expression" dxfId="371" priority="113">
+    <cfRule type="expression" dxfId="363" priority="113">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="114">
+    <cfRule type="expression" dxfId="362" priority="114">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA4">
-    <cfRule type="expression" dxfId="369" priority="111">
+    <cfRule type="expression" dxfId="361" priority="111">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="112">
+    <cfRule type="expression" dxfId="360" priority="112">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54">
-    <cfRule type="expression" dxfId="367" priority="109">
+    <cfRule type="expression" dxfId="359" priority="109">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="110">
+    <cfRule type="expression" dxfId="358" priority="110">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z4">
-    <cfRule type="expression" dxfId="365" priority="107">
+    <cfRule type="expression" dxfId="357" priority="107">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="108">
+    <cfRule type="expression" dxfId="356" priority="108">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54">
-    <cfRule type="expression" dxfId="363" priority="105">
+    <cfRule type="expression" dxfId="355" priority="105">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="106">
+    <cfRule type="expression" dxfId="354" priority="106">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE4">
-    <cfRule type="expression" dxfId="361" priority="103">
+    <cfRule type="expression" dxfId="353" priority="103">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="104">
+    <cfRule type="expression" dxfId="352" priority="104">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE54">
-    <cfRule type="expression" dxfId="359" priority="101">
+    <cfRule type="expression" dxfId="351" priority="101">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="102">
+    <cfRule type="expression" dxfId="350" priority="102">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF4">
-    <cfRule type="expression" dxfId="357" priority="99">
+    <cfRule type="expression" dxfId="349" priority="99">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="100">
+    <cfRule type="expression" dxfId="348" priority="100">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF54">
-    <cfRule type="expression" dxfId="355" priority="97">
+    <cfRule type="expression" dxfId="347" priority="97">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="98">
+    <cfRule type="expression" dxfId="346" priority="98">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD4">
-    <cfRule type="expression" dxfId="353" priority="95">
+    <cfRule type="expression" dxfId="345" priority="95">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="96">
+    <cfRule type="expression" dxfId="344" priority="96">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD54">
-    <cfRule type="expression" dxfId="351" priority="93">
+    <cfRule type="expression" dxfId="343" priority="93">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="94">
+    <cfRule type="expression" dxfId="342" priority="94">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB4">
-    <cfRule type="expression" dxfId="349" priority="91">
+    <cfRule type="expression" dxfId="341" priority="91">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="92">
+    <cfRule type="expression" dxfId="340" priority="92">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="347" priority="89">
+    <cfRule type="expression" dxfId="339" priority="89">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="90">
+    <cfRule type="expression" dxfId="338" priority="90">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC4">
-    <cfRule type="expression" dxfId="345" priority="87">
+    <cfRule type="expression" dxfId="337" priority="87">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="88">
+    <cfRule type="expression" dxfId="336" priority="88">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC54">
-    <cfRule type="expression" dxfId="343" priority="85">
+    <cfRule type="expression" dxfId="335" priority="85">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="86">
+    <cfRule type="expression" dxfId="334" priority="86">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E7:AI24 E35:AI39 E27:AI32 E42:AI63">
-    <cfRule type="expression" dxfId="341" priority="49">
+  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E5:I5 M5:N5 Q5:AI5 E6:P6 T6:U6 X6:AI6 E35:AI39 E27:AI32 E42:AI63 E7:AI24">
+    <cfRule type="expression" dxfId="333" priority="49">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="50">
+    <cfRule type="expression" dxfId="332" priority="50">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D24 D35:D39 D27:D32 D42:D63">
-    <cfRule type="expression" dxfId="339" priority="47">
+  <conditionalFormatting sqref="D35:D39 D27:D32 D42:D63 D4:D24">
+    <cfRule type="expression" dxfId="331" priority="47">
       <formula>C4&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="48">
+    <cfRule type="expression" dxfId="330" priority="48">
       <formula>C4&lt;D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="337" priority="45">
+    <cfRule type="expression" dxfId="329" priority="45">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="46">
+    <cfRule type="expression" dxfId="328" priority="46">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="335" priority="43">
+    <cfRule type="expression" dxfId="327" priority="43">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="44">
+    <cfRule type="expression" dxfId="326" priority="44">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="333" priority="41">
+    <cfRule type="expression" dxfId="325" priority="41">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="42">
+    <cfRule type="expression" dxfId="324" priority="42">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="331" priority="39">
+    <cfRule type="expression" dxfId="323" priority="39">
       <formula>AND(WEEKDAY(H$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="40">
+    <cfRule type="expression" dxfId="322" priority="40">
       <formula>AND(WEEKDAY(H$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="329" priority="37">
+    <cfRule type="expression" dxfId="321" priority="37">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="38">
+    <cfRule type="expression" dxfId="320" priority="38">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L5">
-    <cfRule type="expression" dxfId="327" priority="35">
+    <cfRule type="expression" dxfId="319" priority="35">
       <formula>AND(WEEKDAY(J$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="36">
+    <cfRule type="expression" dxfId="318" priority="36">
       <formula>AND(WEEKDAY(J$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="325" priority="33">
+    <cfRule type="expression" dxfId="317" priority="33">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="34">
+    <cfRule type="expression" dxfId="316" priority="34">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="323" priority="31">
+    <cfRule type="expression" dxfId="315" priority="31">
       <formula>AND(WEEKDAY(O$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="32">
+    <cfRule type="expression" dxfId="314" priority="32">
       <formula>AND(WEEKDAY(O$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="321" priority="29">
+    <cfRule type="expression" dxfId="313" priority="29">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="30">
+    <cfRule type="expression" dxfId="312" priority="30">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="319" priority="27">
+    <cfRule type="expression" dxfId="311" priority="27">
       <formula>AND(WEEKDAY(P$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="28">
+    <cfRule type="expression" dxfId="310" priority="28">
       <formula>AND(WEEKDAY(P$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S6">
-    <cfRule type="expression" dxfId="317" priority="25">
+    <cfRule type="expression" dxfId="309" priority="25">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="26">
+    <cfRule type="expression" dxfId="308" priority="26">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S6">
-    <cfRule type="expression" dxfId="315" priority="23">
+    <cfRule type="expression" dxfId="307" priority="23">
       <formula>AND(WEEKDAY(Q$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="24">
+    <cfRule type="expression" dxfId="306" priority="24">
       <formula>AND(WEEKDAY(Q$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="expression" dxfId="313" priority="21">
+    <cfRule type="expression" dxfId="305" priority="21">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="22">
+    <cfRule type="expression" dxfId="304" priority="22">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="expression" dxfId="311" priority="19">
+    <cfRule type="expression" dxfId="303" priority="19">
       <formula>AND(WEEKDAY(V$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="20">
+    <cfRule type="expression" dxfId="302" priority="20">
       <formula>AND(WEEKDAY(V$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:AG34">
-    <cfRule type="expression" dxfId="309" priority="17">
+    <cfRule type="expression" dxfId="301" priority="17">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="18">
+    <cfRule type="expression" dxfId="300" priority="18">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:AI34">
-    <cfRule type="expression" dxfId="307" priority="15">
+    <cfRule type="expression" dxfId="299" priority="15">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="16">
+    <cfRule type="expression" dxfId="298" priority="16">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D34">
-    <cfRule type="expression" dxfId="305" priority="13">
+    <cfRule type="expression" dxfId="297" priority="13">
       <formula>C33&gt;D33</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="14">
+    <cfRule type="expression" dxfId="296" priority="14">
       <formula>C33&lt;D33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:AG26">
-    <cfRule type="expression" dxfId="303" priority="11">
+    <cfRule type="expression" dxfId="295" priority="11">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="12">
+    <cfRule type="expression" dxfId="294" priority="12">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:AI26">
-    <cfRule type="expression" dxfId="301" priority="9">
+    <cfRule type="expression" dxfId="293" priority="9">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="10">
+    <cfRule type="expression" dxfId="292" priority="10">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D26">
-    <cfRule type="expression" dxfId="299" priority="7">
+    <cfRule type="expression" dxfId="291" priority="7">
       <formula>C25&gt;D25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="8">
+    <cfRule type="expression" dxfId="290" priority="8">
       <formula>C25&lt;D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z40:AG41">
-    <cfRule type="expression" dxfId="297" priority="5">
+    <cfRule type="expression" dxfId="289" priority="5">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="6">
+    <cfRule type="expression" dxfId="288" priority="6">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:AI41">
-    <cfRule type="expression" dxfId="295" priority="3">
+    <cfRule type="expression" dxfId="287" priority="3">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="4">
+    <cfRule type="expression" dxfId="286" priority="4">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="expression" dxfId="293" priority="1">
+    <cfRule type="expression" dxfId="285" priority="1">
       <formula>C40&gt;D40</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="2">
+    <cfRule type="expression" dxfId="284" priority="2">
       <formula>C40&lt;D40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7481,13 +8051,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7504,57 +8074,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42552</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -7690,8 +8260,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -7827,12 +8397,9 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31">
-        <f>ROW() -3</f>
-        <v>1</v>
-      </c>
+      <c r="A4" s="49"/>
       <c r="B4" s="19" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -7869,11 +8436,9 @@
       <c r="AI4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
-        <v>4</v>
-      </c>
+      <c r="A5" s="49"/>
       <c r="B5" s="19" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -7895,7 +8460,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="41"/>
-      <c r="W5" s="27"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -7910,9 +8475,9 @@
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -7934,7 +8499,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="41"/>
-      <c r="W6" s="27"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -7949,18 +8514,16 @@
       <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>79</v>
+      <c r="A7" s="49"/>
+      <c r="B7" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -7975,7 +8538,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="41"/>
-      <c r="W7" s="27"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -7990,31 +8553,29 @@
       <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
+      <c r="A8" s="49"/>
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="41"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -8031,29 +8592,29 @@
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="41"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -8070,29 +8631,29 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="19" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="41"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -8109,29 +8670,29 @@
       <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="19" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="41"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -8148,29 +8709,29 @@
       <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="41"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -8187,29 +8748,29 @@
       <c r="AI12" s="14"/>
     </row>
     <row r="13" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="41"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -8226,29 +8787,29 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
       <c r="V14" s="41"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -8265,31 +8826,29 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
-        <v>7</v>
-      </c>
+      <c r="A15" s="49"/>
       <c r="B15" s="19" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="41"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -8306,31 +8865,29 @@
       <c r="AI15" s="14"/>
     </row>
     <row r="16" spans="1:37" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>8</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>29</v>
+      <c r="A16" s="49"/>
+      <c r="B16" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="41"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -8347,31 +8904,29 @@
       <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
-        <v>9</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>25</v>
+      <c r="A17" s="49"/>
+      <c r="B17" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="41"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -8388,31 +8943,32 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57">
-        <v>10</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>18</v>
+      <c r="A18" s="31">
+        <f>ROW() -3</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="27"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="41"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -8429,31 +8985,33 @@
       <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60">
+        <v>4</v>
+      </c>
       <c r="B19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="41"/>
-      <c r="W19" s="2"/>
+      <c r="W19" s="27"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
@@ -8468,182 +9026,177 @@
       <c r="AI19" s="14"/>
     </row>
     <row r="20" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>11</v>
-      </c>
+      <c r="A20" s="61"/>
       <c r="B20" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="33"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="41"/>
       <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>30</v>
+      <c r="A21" s="31">
+        <v>5</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="41"/>
-      <c r="W21" s="2"/>
+      <c r="W21" s="27"/>
       <c r="X21" s="2"/>
-      <c r="Z21" s="37"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="41"/>
-      <c r="W22" s="27"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>14</v>
-      </c>
+      <c r="A23" s="48"/>
       <c r="B23" s="19" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
       <c r="V23" s="41"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>15</v>
-      </c>
+      <c r="A24" s="48"/>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -8657,34 +9210,32 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="41"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="27"/>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="14"/>
     </row>
     <row r="25" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>16</v>
-      </c>
+      <c r="A25" s="48"/>
       <c r="B25" s="19" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -8704,28 +9255,26 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="33"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>17</v>
-      </c>
+      <c r="A26" s="48"/>
       <c r="B26" s="19" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -8745,28 +9294,26 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="33"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>18</v>
-      </c>
+      <c r="A27" s="48"/>
       <c r="B27" s="19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -8786,24 +9333,26 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="33"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="14"/>
     </row>
     <row r="28" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -8832,15 +9381,19 @@
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="31">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -8869,21 +9422,25 @@
       <c r="AI29" s="14"/>
     </row>
     <row r="30" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="6">
+        <v>8</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -8906,23 +9463,25 @@
       <c r="AI30" s="14"/>
     </row>
     <row r="31" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="A31" s="31">
         <v>9</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="25"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -8945,10 +9504,12 @@
       <c r="AI31" s="14"/>
     </row>
     <row r="32" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="A32" s="58">
         <v>10</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="2"/>
@@ -8958,7 +9519,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -8970,9 +9531,9 @@
       <c r="U32" s="2"/>
       <c r="V32" s="41"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -8984,12 +9545,12 @@
       <c r="AI32" s="14"/>
     </row>
     <row r="33" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
-        <v>20</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -8997,11 +9558,11 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -9009,9 +9570,9 @@
       <c r="U33" s="2"/>
       <c r="V33" s="41"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -9024,9 +9585,11 @@
     </row>
     <row r="34" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
-        <v>21</v>
-      </c>
-      <c r="B34" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="2"/>
@@ -9040,32 +9603,34 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="41"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
-        <v>22</v>
-      </c>
-      <c r="B35" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="2"/>
@@ -9079,32 +9644,33 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="41"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="Z35" s="37"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="14"/>
     </row>
     <row r="36" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
-        <v>23</v>
-      </c>
-      <c r="B36" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="2"/>
@@ -9118,32 +9684,34 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="41"/>
-      <c r="W36" s="2"/>
+      <c r="W36" s="27"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="14"/>
     </row>
     <row r="37" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
-        <v>24</v>
-      </c>
-      <c r="B37" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="2"/>
@@ -9156,33 +9724,35 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="41"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="14"/>
     </row>
     <row r="38" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
-        <v>25</v>
-      </c>
-      <c r="B38" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="2"/>
@@ -9203,27 +9773,29 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="41"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
+      <c r="AG38" s="27"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="14"/>
     </row>
     <row r="39" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
-        <v>26</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -9248,21 +9820,23 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="33"/>
       <c r="AH39" s="2"/>
       <c r="AI39" s="14"/>
     </row>
     <row r="40" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
-        <v>27</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -9287,321 +9861,831 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="33"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="14"/>
     </row>
-    <row r="41" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
+        <v>18</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="14"/>
+    </row>
+    <row r="42" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="14"/>
+    </row>
+    <row r="43" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="14"/>
+    </row>
+    <row r="44" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="14"/>
+    </row>
+    <row r="45" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>9</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="14"/>
+    </row>
+    <row r="46" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>10</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="14"/>
+    </row>
+    <row r="47" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>20</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="14"/>
+    </row>
+    <row r="48" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>21</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="14"/>
+    </row>
+    <row r="49" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>22</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="14"/>
+    </row>
+    <row r="50" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>23</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="14"/>
+    </row>
+    <row r="51" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>24</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="14"/>
+    </row>
+    <row r="52" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>25</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="14"/>
+    </row>
+    <row r="53" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>26</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="14"/>
+    </row>
+    <row r="54" spans="1:35" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>27</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="14"/>
+    </row>
+    <row r="55" spans="1:35" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>28</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="15"/>
-    </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="15"/>
+    </row>
+    <row r="56" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E1:AI1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E2:Y3 E32:Y41 AH32:AI41 AH2:AI4 F4:G4 J4:Y4 E5:AI7">
-    <cfRule type="expression" dxfId="291" priority="123">
+  <conditionalFormatting sqref="E46:Y55 AH46:AI55 E2:AI21">
+    <cfRule type="expression" dxfId="283" priority="123">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="124">
+    <cfRule type="expression" dxfId="282" priority="124">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:Y8 AH31:AI31 E31:Y31 AH8:AI8 AH12:AI19 E12:Y19">
-    <cfRule type="expression" dxfId="289" priority="121">
+  <conditionalFormatting sqref="E22:Y22 AH45:AI45 E45:Y45 AH22:AI22 AH26:AI33 E26:Y33">
+    <cfRule type="expression" dxfId="281" priority="121">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="122">
+    <cfRule type="expression" dxfId="280" priority="122">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG41 AG2:AG4">
-    <cfRule type="expression" dxfId="287" priority="119">
+  <conditionalFormatting sqref="AG46:AG55">
+    <cfRule type="expression" dxfId="279" priority="119">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="120">
+    <cfRule type="expression" dxfId="278" priority="120">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31 AG8 AG12:AG19">
-    <cfRule type="expression" dxfId="285" priority="117">
+  <conditionalFormatting sqref="AG45 AG22 AG26:AG33">
+    <cfRule type="expression" dxfId="277" priority="117">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="118">
+    <cfRule type="expression" dxfId="276" priority="118">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32:AA41 AA2:AA4">
-    <cfRule type="expression" dxfId="283" priority="115">
+  <conditionalFormatting sqref="AA46:AA55">
+    <cfRule type="expression" dxfId="275" priority="115">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="116">
+    <cfRule type="expression" dxfId="274" priority="116">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA31 AA8 AA12:AA19">
-    <cfRule type="expression" dxfId="281" priority="113">
+  <conditionalFormatting sqref="AA45 AA22 AA26:AA33">
+    <cfRule type="expression" dxfId="273" priority="113">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="114">
+    <cfRule type="expression" dxfId="272" priority="114">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z32:Z41 Z2:Z4">
-    <cfRule type="expression" dxfId="279" priority="111">
+  <conditionalFormatting sqref="Z46:Z55">
+    <cfRule type="expression" dxfId="271" priority="111">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="112">
+    <cfRule type="expression" dxfId="270" priority="112">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31 Z8 Z12:Z19">
-    <cfRule type="expression" dxfId="277" priority="109">
+  <conditionalFormatting sqref="Z45 Z22 Z26:Z33">
+    <cfRule type="expression" dxfId="269" priority="109">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="110">
+    <cfRule type="expression" dxfId="268" priority="110">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32:AE41 AE2:AE4">
-    <cfRule type="expression" dxfId="275" priority="107">
+  <conditionalFormatting sqref="AE46:AE55">
+    <cfRule type="expression" dxfId="267" priority="107">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="108">
+    <cfRule type="expression" dxfId="266" priority="108">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31 AE8 AE12:AE19">
-    <cfRule type="expression" dxfId="273" priority="105">
+  <conditionalFormatting sqref="AE45 AE22 AE26:AE33">
+    <cfRule type="expression" dxfId="265" priority="105">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="106">
+    <cfRule type="expression" dxfId="264" priority="106">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF41 AF2:AF4">
-    <cfRule type="expression" dxfId="271" priority="103">
+  <conditionalFormatting sqref="AF46:AF55">
+    <cfRule type="expression" dxfId="263" priority="103">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="104">
+    <cfRule type="expression" dxfId="262" priority="104">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31 AF8 AF12:AF19">
-    <cfRule type="expression" dxfId="269" priority="101">
+  <conditionalFormatting sqref="AF45 AF22 AF26:AF33">
+    <cfRule type="expression" dxfId="261" priority="101">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="102">
+    <cfRule type="expression" dxfId="260" priority="102">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD32:AD41 AD2:AD4">
-    <cfRule type="expression" dxfId="267" priority="99">
+  <conditionalFormatting sqref="AD46:AD55">
+    <cfRule type="expression" dxfId="259" priority="99">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="100">
+    <cfRule type="expression" dxfId="258" priority="100">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD31 AD8 AD12:AD19">
-    <cfRule type="expression" dxfId="265" priority="97">
+  <conditionalFormatting sqref="AD45 AD22 AD26:AD33">
+    <cfRule type="expression" dxfId="257" priority="97">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="98">
+    <cfRule type="expression" dxfId="256" priority="98">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB41 AB2:AB4">
-    <cfRule type="expression" dxfId="263" priority="95">
+  <conditionalFormatting sqref="AB46:AB55">
+    <cfRule type="expression" dxfId="255" priority="95">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="96">
+    <cfRule type="expression" dxfId="254" priority="96">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31 AB8 AB12:AB19">
-    <cfRule type="expression" dxfId="261" priority="93">
+  <conditionalFormatting sqref="AB45 AB22 AB26:AB33">
+    <cfRule type="expression" dxfId="253" priority="93">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="94">
+    <cfRule type="expression" dxfId="252" priority="94">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32:AC41 AC2:AC4">
-    <cfRule type="expression" dxfId="259" priority="91">
+  <conditionalFormatting sqref="AC46:AC55">
+    <cfRule type="expression" dxfId="251" priority="91">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="92">
+    <cfRule type="expression" dxfId="250" priority="92">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31 AC8 AC12:AC19">
-    <cfRule type="expression" dxfId="257" priority="89">
+  <conditionalFormatting sqref="AC45 AC22 AC26:AC33">
+    <cfRule type="expression" dxfId="249" priority="89">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="90">
+    <cfRule type="expression" dxfId="248" priority="90">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG20:AG30">
-    <cfRule type="expression" dxfId="255" priority="85">
+  <conditionalFormatting sqref="AG34:AG44">
+    <cfRule type="expression" dxfId="247" priority="85">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="86">
+    <cfRule type="expression" dxfId="246" priority="86">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA20:AA30">
-    <cfRule type="expression" dxfId="253" priority="81">
+  <conditionalFormatting sqref="AA34:AA44">
+    <cfRule type="expression" dxfId="245" priority="81">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="82">
+    <cfRule type="expression" dxfId="244" priority="82">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z20 Z22:Z30">
-    <cfRule type="expression" dxfId="251" priority="77">
+  <conditionalFormatting sqref="Z34 Z36:Z44">
+    <cfRule type="expression" dxfId="243" priority="77">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="78">
+    <cfRule type="expression" dxfId="242" priority="78">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE20:AE30">
-    <cfRule type="expression" dxfId="249" priority="73">
+  <conditionalFormatting sqref="AE34:AE44">
+    <cfRule type="expression" dxfId="241" priority="73">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="74">
+    <cfRule type="expression" dxfId="240" priority="74">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF20:AF30">
-    <cfRule type="expression" dxfId="247" priority="69">
+  <conditionalFormatting sqref="AF34:AF44">
+    <cfRule type="expression" dxfId="239" priority="69">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="70">
+    <cfRule type="expression" dxfId="238" priority="70">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD20:AD30">
-    <cfRule type="expression" dxfId="245" priority="65">
+  <conditionalFormatting sqref="AD34:AD44">
+    <cfRule type="expression" dxfId="237" priority="65">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="66">
+    <cfRule type="expression" dxfId="236" priority="66">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB20:AB30">
-    <cfRule type="expression" dxfId="243" priority="61">
+  <conditionalFormatting sqref="AB34:AB44">
+    <cfRule type="expression" dxfId="235" priority="61">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="62">
+    <cfRule type="expression" dxfId="234" priority="62">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC20:AC30">
-    <cfRule type="expression" dxfId="241" priority="57">
+  <conditionalFormatting sqref="AC34:AC44">
+    <cfRule type="expression" dxfId="233" priority="57">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="58">
+    <cfRule type="expression" dxfId="232" priority="58">
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:AI3 F4:G4 J4:AI4 E22:AI41 AA21:AI21 E21:X21 E5:AI8 E12:AI20">
-    <cfRule type="expression" dxfId="239" priority="53">
+  <conditionalFormatting sqref="E36:AI55 AA35:AI35 E35:X35 E26:AI34 E2:AI22">
+    <cfRule type="expression" dxfId="231" priority="53">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="54">
+    <cfRule type="expression" dxfId="230" priority="54">
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D8 D12:D41">
-    <cfRule type="expression" dxfId="237" priority="51">
+  <conditionalFormatting sqref="D26:D55 D4:D22">
+    <cfRule type="expression" dxfId="229" priority="51">
       <formula>C4&gt;D4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="52">
+    <cfRule type="expression" dxfId="228" priority="52">
       <formula>C4&lt;D4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="235" priority="49">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="50">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="233" priority="47">
-      <formula>AND(WEEKDAY(E$3)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="48">
-      <formula>AND(WEEKDAY(E$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="231" priority="45">
-      <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="46">
-      <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="229" priority="43">
-      <formula>AND(WEEKDAY(H$3)=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="44">
-      <formula>AND(WEEKDAY(H$3)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
+  <conditionalFormatting sqref="Z35">
     <cfRule type="expression" dxfId="227" priority="129">
       <formula>AND(WEEKDAY(Y$3)=1)</formula>
     </cfRule>
@@ -9609,7 +10693,7 @@
       <formula>AND(WEEKDAY(Y$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AI11 E9:Y11">
+  <conditionalFormatting sqref="AH23:AI25 E23:Y25">
     <cfRule type="expression" dxfId="225" priority="21">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9617,7 +10701,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG11">
+  <conditionalFormatting sqref="AG23:AG25">
     <cfRule type="expression" dxfId="223" priority="19">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9625,7 +10709,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA11">
+  <conditionalFormatting sqref="AA23:AA25">
     <cfRule type="expression" dxfId="221" priority="17">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9633,7 +10717,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z9:Z11">
+  <conditionalFormatting sqref="Z23:Z25">
     <cfRule type="expression" dxfId="219" priority="15">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9641,7 +10725,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE11">
+  <conditionalFormatting sqref="AE23:AE25">
     <cfRule type="expression" dxfId="217" priority="13">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9649,7 +10733,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF11">
+  <conditionalFormatting sqref="AF23:AF25">
     <cfRule type="expression" dxfId="215" priority="11">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9657,7 +10741,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD9:AD11">
+  <conditionalFormatting sqref="AD23:AD25">
     <cfRule type="expression" dxfId="213" priority="9">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9665,7 +10749,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AB11">
+  <conditionalFormatting sqref="AB23:AB25">
     <cfRule type="expression" dxfId="211" priority="7">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9673,7 +10757,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AC11">
+  <conditionalFormatting sqref="AC23:AC25">
     <cfRule type="expression" dxfId="209" priority="5">
       <formula>"IF(D$3=""日"",TRUE,FALSE)"</formula>
     </cfRule>
@@ -9681,7 +10765,7 @@
       <formula>"IF(D$3=""土"",TRUE,FALSE)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:AI11">
+  <conditionalFormatting sqref="E23:AI25">
     <cfRule type="expression" dxfId="207" priority="3">
       <formula>AND(WEEKDAY(E$3)=1)</formula>
     </cfRule>
@@ -9689,12 +10773,12 @@
       <formula>AND(WEEKDAY(E$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="expression" dxfId="205" priority="1">
-      <formula>C9&gt;D9</formula>
+      <formula>C23&gt;D23</formula>
     </cfRule>
     <cfRule type="expression" dxfId="204" priority="2">
-      <formula>C9&lt;D9</formula>
+      <formula>C23&lt;D23</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9728,57 +10812,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>42583</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -9914,8 +10998,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -11762,57 +12846,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56">
         <f ca="1">TEXT(MID(CELL("filename",$E$1),FIND("]",CELL("filename",$E$1))+1,31)&amp;".1","ge.m.d")*1</f>
         <v>41852</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
       <c r="AK1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
@@ -11948,8 +13032,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
